--- a/PriceTable.xlsx
+++ b/PriceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274F7BE-B97C-674C-94A6-0D38C30E6FAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0388A0-1EE3-0B43-A551-76922A4471DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="11" r:id="rId1"/>

--- a/PriceTable.xlsx
+++ b/PriceTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0388A0-1EE3-0B43-A551-76922A4471DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C61063-601C-2B4F-8027-7C132850C563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="11" r:id="rId1"/>
@@ -1079,24 +1079,69 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,51 +1149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1820,7 +1820,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2090,28 +2090,28 @@
         <v>1000000</v>
       </c>
       <c r="D4" s="56">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="E4" s="56">
-        <v>0</v>
+        <v>-555</v>
       </c>
       <c r="F4" s="56">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="G4" s="56">
-        <v>0</v>
+        <v>-666</v>
       </c>
       <c r="H4" s="56">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="I4" s="56">
-        <v>0</v>
+        <v>-777</v>
       </c>
       <c r="J4" s="56">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="K4" s="56">
-        <v>0</v>
+        <v>-888</v>
       </c>
       <c r="L4" s="57">
         <v>4242</v>
@@ -2140,28 +2140,28 @@
         <v>1300000</v>
       </c>
       <c r="D5" s="56">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="E5" s="56">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="F5" s="56">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="G5" s="56">
-        <v>0</v>
+        <v>-1010</v>
       </c>
       <c r="H5" s="56">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="I5" s="56">
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="J5" s="56">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="K5" s="56">
-        <v>0</v>
+        <v>-3030</v>
       </c>
       <c r="L5" s="57">
         <v>42442</v>
@@ -2213,70 +2213,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="91"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="92"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2294,7 +2294,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="89">
+      <c r="B6" s="83">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2337,7 +2337,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="73"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="73"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="90"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="74"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
@@ -2501,58 +2501,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2560,12 +2560,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="84"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="73">
+      <c r="B17" s="84">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2627,7 +2627,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="73"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="73"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2709,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="73"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2750,7 +2750,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="74"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="44" t="s">
         <v>22</v>
       </c>
@@ -2830,6 +2830,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="G15:G16"/>
@@ -2846,10 +2850,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
